--- a/data/OBTN final data by county.xlsx
+++ b/data/OBTN final data by county.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkeyes/Google Drive/Work/Projects/TFFF/Projects/OBTN/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F85B23E0-EB90-D240-9B6D-B33DDA2325FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17120" activeTab="3"/>
+    <workbookView xWindow="2480" yWindow="700" windowWidth="28000" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute List" sheetId="1" r:id="rId1"/>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Client Services</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -76,12 +77,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Client Services</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -110,12 +111,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Client Services</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="380">
   <si>
     <t>Start Year</t>
   </si>
@@ -1289,7 +1290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2133,7 +2134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D54"/>
   <sheetViews>
@@ -2691,15 +2692,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BQ41"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="47" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="47" topLeftCell="P48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10655,7 +10656,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BQ41"/>
+  <autoFilter ref="A2:BQ41" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -10663,11 +10664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10730,6 +10731,9 @@
       <c r="H4" t="s">
         <v>347</v>
       </c>
+      <c r="J4" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -10903,6 +10907,9 @@
       <c r="H23" t="s">
         <v>347</v>
       </c>
+      <c r="J23" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -10919,6 +10926,9 @@
       <c r="H25" t="s">
         <v>347</v>
       </c>
+      <c r="J25" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -10974,6 +10984,9 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>374</v>
+      </c>
+      <c r="I32" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -11023,11 +11036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
@@ -17925,7 +17938,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BD41"/>
+  <autoFilter ref="A2:BD41" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -17933,7 +17946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BD43"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -24772,7 +24785,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BD42"/>
+  <autoFilter ref="A1:BD42" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
